--- a/data/long_razon/P24_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_2-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-22,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 105,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 71,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 60,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,0; 116,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,0; -4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 61,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,52; 78,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,39; -8,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 114,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 80,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 8,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,45; 150,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 64,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 18,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 103,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 57,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 3,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>213,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 839,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 122,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 238,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 118,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 133,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 178,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 198,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 84,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 139,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 101,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 51,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 61,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 73,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,39; 68,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 52,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,97; -2,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_2-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.3616019631443138</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1743063108855033</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2308947295046686</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1056257074513307</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.224207341932058</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.7085453145013132</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.2388334757578041</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.09197756958092738</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2804371502943221</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.4377626609796769</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.2352401949531182</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.09776116015916902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.121934956018619</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1969684964092727</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4504143831336516</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2300017959217872</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.06813582602100869</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3035063158068338</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3996613623720458</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1811526242998836</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.00724356489836998</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.16307004845977</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.357196670324798</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1385879118197033</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.041053955473483</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6979952898718188</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.04728952611878227</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.6019813751689572</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.6102590844444674</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.283678047979082</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.03660407591446837</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4555733225324273</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.6408395474672033</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.8072796670102808</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.05465879324208388</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.3940013293592752</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.4005732915582094</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1611290567600428</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2178728016379206</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.06318992972573735</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.6590065758221384</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1190196015499454</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.05706843164653004</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.5371964696888069</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.5283005412220002</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1408986466215162</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.134355485352595</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.3050353677282694</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.06113645800455102</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3634735185142866</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4441281163021557</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.308454198643718</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.1567565524028012</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.181516899382992</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3028733344641497</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.1101685267124958</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.1720404974502483</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1613781792489731</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2930036656869437</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.008060101507590791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.228403680212249</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7482368639924016</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1011117998735566</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6242704136297093</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.394238852599822</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6643064715662035</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2321794353465792</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.128483353343396</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.9881090165180176</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.4972214509047668</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.06588728506422467</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.6777241323128428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.221920336304582</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.08091644686355497</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.56295241502911</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.676841111515651</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.01911097149016747</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.3411864222403137</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4904822771560032</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>1.419249245226664</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.5749404142410212</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1876505686259858</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.5201320582101364</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>2.135316087381506</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.1134369479769821</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5589756672961943</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1725870913178225</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4616990678940616</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4896011123179095</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2962858391942427</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1266978339963625</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.3553645523752952</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.07494244181580875</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.3423203121455415</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.02349808163361526</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.8280177247395334</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.14263248650761</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.289964732412115</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.251372177013294</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.13654196701446</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.9273153393481408</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.708968984644209</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.625414344056601</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>3.544975298442786</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>2.221508780452932</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.8875069273419022</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.390843220177222</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>4.760820357403507</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.5050125023007863</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1560542784754781</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1732087594162619</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2648362343819712</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3281384416818808</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.4251862427668445</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1111219653381423</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.3651653283617579</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.4039972520887901</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2846410114047013</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.1397037806809381</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.3207835055790867</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1289844295100071</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1228976397842907</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3283818615930154</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.039570299978989</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.07847848395750436</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.160007187021649</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2577637217696553</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.09137945919980377</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1653807442909166</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.07773856095988414</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2520384133636145</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.1332849154151976</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.063244756627582</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5128059570376162</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.02546090976587351</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7451154977720197</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6359256228465332</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.7540723269586264</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.03292891572245232</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.6493327810801093</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.6450139145896272</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5236507050732482</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.006283499960607252</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.556032813612963</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
